--- a/RAAL/Production/Results_Production_xgb_RAAL_wm.xlsx
+++ b/RAAL/Production/Results_Production_xgb_RAAL_wm.xlsx
@@ -358,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,384 +377,384 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>1.330067038536072</v>
+        <v>1.224087953567505</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>1.031975388526917</v>
+        <v>0.5956250429153442</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>0.4615969955921173</v>
+        <v>0.02224511653184891</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>0.01050375308841467</v>
+        <v>0.009877800941467285</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>0.009877800941467285</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>0.009877800941467285</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>0.009877800941467285</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0.009877800941467285</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>0.009953487664461136</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.009953487664461136</v>
+        <v>0.02396511659026146</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.009787719696760178</v>
+        <v>0.02396511659026146</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>0.009712032973766327</v>
+        <v>0.02396511659026146</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>0.009712032973766327</v>
+        <v>0.02396511659026146</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>0.009712032973766327</v>
+        <v>0.02396511659026146</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>0.009712032973766327</v>
+        <v>0.02396511659026146</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>0.009712032973766327</v>
+        <v>0.02396511659026146</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>0.009712032973766327</v>
+        <v>0.02602160349488258</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>0.01076044421643019</v>
+        <v>0.8437248468399048</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>0.2649661302566528</v>
+        <v>3.50026273727417</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>0.9225662350654602</v>
+        <v>3.753843784332275</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>1.336815118789673</v>
+        <v>3.698030233383179</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>1.671430706977844</v>
+        <v>3.535634994506836</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>1.814909219741821</v>
+        <v>3.570489406585693</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>1.598496437072754</v>
+        <v>3.477227449417114</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>1.308546900749207</v>
+        <v>3.694942951202393</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>1.035744071006775</v>
+        <v>0.8502124547958374</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>0.4775691628456116</v>
+        <v>0.01741396263241768</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29">
-        <v>0.0212963055819273</v>
+        <v>0.01741396263241768</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30">
-        <v>0.009877800941467285</v>
+        <v>0.009953487664461136</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31">
-        <v>0.02413088455796242</v>
+        <v>0.009953487664461136</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>0.02413088455796242</v>
+        <v>0.01296874135732651</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B33">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C33">
-        <v>0.02413088455796242</v>
+        <v>0.0154873700812459</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C34">
-        <v>0.02413088455796242</v>
+        <v>0.01981336809694767</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45323</v>
+        <v>45325</v>
       </c>
       <c r="B35">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0.02413088455796242</v>
+        <v>0.01984102837741375</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>0.02396511659026146</v>
@@ -762,10 +762,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>0.02396511659026146</v>
@@ -773,10 +773,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>0.02396511659026146</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>0.02396511659026146</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>0.02396511659026146</v>
@@ -806,10 +806,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41">
         <v>0.02396511659026146</v>
@@ -817,153 +817,153 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>0.02396511659026146</v>
+        <v>0.02602160349488258</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>0.01475107576698065</v>
+        <v>1.450816631317139</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>0.4720429182052612</v>
+        <v>3.603536128997803</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>2.129217624664307</v>
+        <v>3.77857232093811</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>3.312492847442627</v>
+        <v>3.783604860305786</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>3.597352981567383</v>
+        <v>3.592041015625</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48">
-        <v>3.081132888793945</v>
+        <v>3.796834468841553</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>3.858909845352173</v>
+        <v>3.984633445739746</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>3.815161466598511</v>
+        <v>3.427447319030762</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B51">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>1.182390928268433</v>
+        <v>1.720540285110474</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B52">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>0.4950268268585205</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B53">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>0.0166958924382925</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B54">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <v>0.01207545306533575</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B55">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C55">
         <v>0.02413088455796242</v>
@@ -971,65 +971,65 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B56">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C56">
-        <v>0.02000679634511471</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B57">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C57">
-        <v>0.01741396263241768</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B58">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C58">
-        <v>0.02023587562143803</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B59">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0.02000679634511471</v>
+        <v>0.02396511659026146</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45325</v>
+        <v>45326</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>0.02331016585230827</v>
+        <v>0.02396511659026146</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45325</v>
+        <v>45326</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61">
         <v>0.02396511659026146</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45325</v>
+        <v>45326</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62">
         <v>0.02396511659026146</v>
@@ -1048,10 +1048,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45325</v>
+        <v>45326</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C63">
         <v>0.02396511659026146</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45325</v>
+        <v>45326</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C64">
         <v>0.02396511659026146</v>
@@ -1070,10 +1070,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45325</v>
+        <v>45326</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65">
         <v>0.02396511659026146</v>
@@ -1081,354 +1081,90 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45325</v>
+        <v>45326</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66">
-        <v>0.02396511659026146</v>
+        <v>0.02602160349488258</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45325</v>
+        <v>45326</v>
       </c>
       <c r="B67">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67">
-        <v>0.02602160349488258</v>
+        <v>0.8437248468399048</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45325</v>
+        <v>45326</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>0.8437248468399048</v>
+        <v>3.555404424667358</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45325</v>
+        <v>45326</v>
       </c>
       <c r="B69">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>3.712214946746826</v>
+        <v>3.739868640899658</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45325</v>
+        <v>45326</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C70">
-        <v>3.641282320022583</v>
+        <v>3.775152683258057</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45325</v>
+        <v>45326</v>
       </c>
       <c r="B71">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71">
-        <v>3.123999357223511</v>
+        <v>3.583588838577271</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45325</v>
+        <v>45326</v>
       </c>
       <c r="B72">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C72">
-        <v>3.584652185440063</v>
+        <v>3.722435712814331</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45325</v>
+        <v>45326</v>
       </c>
       <c r="B73">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C73">
-        <v>3.342908143997192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>45325</v>
-      </c>
-      <c r="B74">
-        <v>14</v>
-      </c>
-      <c r="C74">
-        <v>3.388518333435059</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>45325</v>
-      </c>
-      <c r="B75">
-        <v>15</v>
-      </c>
-      <c r="C75">
-        <v>3.190932989120483</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>45325</v>
-      </c>
-      <c r="B76">
-        <v>16</v>
-      </c>
-      <c r="C76">
-        <v>3.297137498855591</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>45325</v>
-      </c>
-      <c r="B77">
-        <v>17</v>
-      </c>
-      <c r="C77">
-        <v>0.0350673496723175</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>45325</v>
-      </c>
-      <c r="B78">
-        <v>18</v>
-      </c>
-      <c r="C78">
-        <v>0.02413088455796242</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>45325</v>
-      </c>
-      <c r="B79">
-        <v>19</v>
-      </c>
-      <c r="C79">
-        <v>0.02413088455796242</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>45325</v>
-      </c>
-      <c r="B80">
-        <v>20</v>
-      </c>
-      <c r="C80">
-        <v>0.02413088455796242</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>45325</v>
-      </c>
-      <c r="B81">
-        <v>21</v>
-      </c>
-      <c r="C81">
-        <v>0.02413088455796242</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>45325</v>
-      </c>
-      <c r="B82">
-        <v>22</v>
-      </c>
-      <c r="C82">
-        <v>0.02413088455796242</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>45325</v>
-      </c>
-      <c r="B83">
-        <v>23</v>
-      </c>
-      <c r="C83">
-        <v>0.02413088455796242</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>45326</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>0.02396511659026146</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>45326</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>0.02396511659026146</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>45326</v>
-      </c>
-      <c r="B86">
-        <v>2</v>
-      </c>
-      <c r="C86">
-        <v>0.02396511659026146</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>45326</v>
-      </c>
-      <c r="B87">
-        <v>3</v>
-      </c>
-      <c r="C87">
-        <v>0.02396511659026146</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>45326</v>
-      </c>
-      <c r="B88">
-        <v>4</v>
-      </c>
-      <c r="C88">
-        <v>0.02396511659026146</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>45326</v>
-      </c>
-      <c r="B89">
-        <v>5</v>
-      </c>
-      <c r="C89">
-        <v>0.02396511659026146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>45326</v>
-      </c>
-      <c r="B90">
-        <v>6</v>
-      </c>
-      <c r="C90">
-        <v>0.02396511659026146</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>45326</v>
-      </c>
-      <c r="B91">
-        <v>7</v>
-      </c>
-      <c r="C91">
-        <v>0.02602160349488258</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>45326</v>
-      </c>
-      <c r="B92">
-        <v>8</v>
-      </c>
-      <c r="C92">
-        <v>0.8437248468399048</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>45326</v>
-      </c>
-      <c r="B93">
-        <v>9</v>
-      </c>
-      <c r="C93">
-        <v>3.555404424667358</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>45326</v>
-      </c>
-      <c r="B94">
-        <v>10</v>
-      </c>
-      <c r="C94">
-        <v>3.752075672149658</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>45326</v>
-      </c>
-      <c r="B95">
-        <v>11</v>
-      </c>
-      <c r="C95">
-        <v>3.787359714508057</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>45326</v>
-      </c>
-      <c r="B96">
-        <v>12</v>
-      </c>
-      <c r="C96">
-        <v>3.632625818252563</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>45326</v>
-      </c>
-      <c r="B97">
-        <v>13</v>
-      </c>
-      <c r="C97">
-        <v>3.736693143844604</v>
+        <v>3.899230718612671</v>
       </c>
     </row>
   </sheetData>

--- a/RAAL/Production/Results_Production_xgb_RAAL_wm.xlsx
+++ b/RAAL/Production/Results_Production_xgb_RAAL_wm.xlsx
@@ -358,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,65 +377,65 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45323</v>
+        <v>45327</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>1.224087953567505</v>
+        <v>3.371926546096802</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45323</v>
+        <v>45327</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>0.5956250429153442</v>
+        <v>3.772702217102051</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45323</v>
+        <v>45327</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>0.02224511653184891</v>
+        <v>3.558686494827271</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45323</v>
+        <v>45327</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>0.009877800941467285</v>
+        <v>1.746927738189697</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45323</v>
+        <v>45327</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>0.02413088455796242</v>
+        <v>0.02620400488376617</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45323</v>
+        <v>45327</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>0.02413088455796242</v>
@@ -443,10 +443,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45323</v>
+        <v>45327</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>0.02413088455796242</v>
@@ -454,10 +454,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45323</v>
+        <v>45327</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>0.02413088455796242</v>
@@ -465,10 +465,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45323</v>
+        <v>45327</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>0.02413088455796242</v>
@@ -476,32 +476,32 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>0.02396511659026146</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>0.02396511659026146</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0.02396511659026146</v>
@@ -509,10 +509,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0.02396511659026146</v>
@@ -520,10 +520,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>0.02396511659026146</v>
@@ -531,10 +531,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>0.02396511659026146</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>0.02396511659026146</v>
@@ -553,230 +553,230 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>0.02602160349488258</v>
+        <v>0.02396511659026146</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>0.8437248468399048</v>
+        <v>0.02396511659026146</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>3.50026273727417</v>
+        <v>0.0250907875597477</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>3.753843784332275</v>
+        <v>0.8482181429862976</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>3.698030233383179</v>
+        <v>2.440028667449951</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>3.535634994506836</v>
+        <v>3.281532526016235</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>3.570489406585693</v>
+        <v>3.795012235641479</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>3.477227449417114</v>
+        <v>3.81330680847168</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26">
-        <v>3.694942951202393</v>
+        <v>3.16619086265564</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27">
-        <v>0.8502124547958374</v>
+        <v>3.527982950210571</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28">
-        <v>0.01741396263241768</v>
+        <v>3.410948991775513</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29">
-        <v>0.01741396263241768</v>
+        <v>2.021544456481934</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30">
-        <v>0.009953487664461136</v>
+        <v>0.0350673496723175</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31">
-        <v>0.009953487664461136</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C32">
-        <v>0.01296874135732651</v>
+        <v>0.02347593382000923</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C33">
-        <v>0.0154873700812459</v>
+        <v>0.02347593382000923</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C34">
-        <v>0.01981336809694767</v>
+        <v>0.02347593382000923</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45325</v>
+        <v>45328</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C35">
-        <v>0.01984102837741375</v>
+        <v>0.02320006862282753</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45325</v>
+        <v>45328</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C36">
-        <v>0.02396511659026146</v>
+        <v>0.02320006862282753</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0.02396511659026146</v>
+        <v>0.02331016585230827</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>0.02396511659026146</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>0.02396511659026146</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>0.02396511659026146</v>
@@ -806,10 +806,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C41">
         <v>0.02396511659026146</v>
@@ -817,230 +817,230 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42">
-        <v>0.02602160349488258</v>
+        <v>0.02396511659026146</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>1.450816631317139</v>
+        <v>0.02396511659026146</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C44">
-        <v>3.603536128997803</v>
+        <v>0.02602160349488258</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C45">
-        <v>3.77857232093811</v>
+        <v>1.76830267906189</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C46">
-        <v>3.783604860305786</v>
+        <v>3.675012588500977</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <v>3.592041015625</v>
+        <v>3.513988733291626</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C48">
-        <v>3.796834468841553</v>
+        <v>3.19330620765686</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>3.984633445739746</v>
+        <v>3.115317821502686</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C50">
-        <v>3.427447319030762</v>
+        <v>3.102758884429932</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C51">
-        <v>1.720540285110474</v>
+        <v>3.241005897521973</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B52">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C52">
-        <v>0.02413088455796242</v>
+        <v>3.633407115936279</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B53">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C53">
-        <v>0.02413088455796242</v>
+        <v>1.129147887229919</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B54">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C54">
-        <v>0.02413088455796242</v>
+        <v>0.01550001557916403</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B55">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C55">
-        <v>0.02413088455796242</v>
+        <v>0.01349807716906071</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B56">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C56">
-        <v>0.02413088455796242</v>
+        <v>0.01207545306533575</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B57">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C57">
-        <v>0.02413088455796242</v>
+        <v>0.009953487664461136</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B58">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C58">
-        <v>0.02413088455796242</v>
+        <v>0.009953487664461136</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45326</v>
+        <v>45329</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C59">
-        <v>0.02396511659026146</v>
+        <v>0.01113460119813681</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45326</v>
+        <v>45329</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C60">
-        <v>0.02396511659026146</v>
+        <v>0.01207545306533575</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>0.02396511659026146</v>
+        <v>0.01280297338962555</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>0.02396511659026146</v>
@@ -1048,10 +1048,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C63">
         <v>0.02396511659026146</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C64">
         <v>0.02396511659026146</v>
@@ -1070,10 +1070,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C65">
         <v>0.02396511659026146</v>
@@ -1081,90 +1081,354 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66">
-        <v>0.02602160349488258</v>
+        <v>0.02396511659026146</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67">
-        <v>0.8437248468399048</v>
+        <v>0.02396511659026146</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C68">
-        <v>3.555404424667358</v>
+        <v>0.02602160349488258</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C69">
-        <v>3.739868640899658</v>
+        <v>2.102064847946167</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C70">
-        <v>3.775152683258057</v>
+        <v>3.77857232093811</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C71">
-        <v>3.583588838577271</v>
+        <v>3.54853367805481</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="B72">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C72">
-        <v>3.722435712814331</v>
+        <v>3.367605686187744</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>3.180029630661011</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B74">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>3.318439960479736</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B75">
         <v>14</v>
       </c>
-      <c r="C73">
-        <v>3.899230718612671</v>
+      <c r="C75">
+        <v>3.821091890335083</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B76">
+        <v>15</v>
+      </c>
+      <c r="C76">
+        <v>3.424803495407104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B77">
+        <v>16</v>
+      </c>
+      <c r="C77">
+        <v>1.72944450378418</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B78">
+        <v>17</v>
+      </c>
+      <c r="C78">
+        <v>0.02620400488376617</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B79">
+        <v>18</v>
+      </c>
+      <c r="C79">
+        <v>0.02413088455796242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B80">
+        <v>19</v>
+      </c>
+      <c r="C80">
+        <v>0.02413088455796242</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B81">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>0.02413088455796242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B82">
+        <v>21</v>
+      </c>
+      <c r="C82">
+        <v>0.02413088455796242</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B83">
+        <v>22</v>
+      </c>
+      <c r="C83">
+        <v>0.02413088455796242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B84">
+        <v>23</v>
+      </c>
+      <c r="C84">
+        <v>0.02413088455796242</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>3.394882440567017</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>3.462519645690918</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>3.462519645690918</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>3.462519645690918</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>3.462519645690918</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>3.484997272491455</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>3.462519645690918</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B92">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>3.412805318832397</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>3.383103132247925</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>3.338872671127319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>3.318135023117065</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B96">
+        <v>11</v>
+      </c>
+      <c r="C96">
+        <v>3.216139793395996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B97">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>3.102933168411255</v>
       </c>
     </row>
   </sheetData>

--- a/RAAL/Production/Results_Production_xgb_RAAL_wm.xlsx
+++ b/RAAL/Production/Results_Production_xgb_RAAL_wm.xlsx
@@ -377,87 +377,87 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>3.371926546096802</v>
+        <v>3.285614728927612</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>3.772702217102051</v>
+        <v>3.232341051101685</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>3.558686494827271</v>
+        <v>3.066033363342285</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>1.746927738189697</v>
+        <v>3.297250270843506</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>0.02620400488376617</v>
+        <v>0.8487949967384338</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>0.02413088455796242</v>
+        <v>0.01557119004428387</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>0.02413088455796242</v>
+        <v>0.0154873700812459</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>0.02413088455796242</v>
@@ -465,10 +465,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>0.02413088455796242</v>
@@ -476,10 +476,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>0.02413088455796242</v>
@@ -487,10 +487,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>0.02413088455796242</v>
@@ -498,21 +498,21 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45328</v>
+        <v>45329</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>0.02396511659026146</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0.02396511659026146</v>
@@ -520,10 +520,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0.02396511659026146</v>
@@ -531,10 +531,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>0.02396511659026146</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>0.02396511659026146</v>
@@ -553,10 +553,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>0.02396511659026146</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>0.02396511659026146</v>
@@ -575,208 +575,208 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>0.0250907875597477</v>
+        <v>0.02396511659026146</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>0.8482181429862976</v>
+        <v>0.02602160349488258</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>2.440028667449951</v>
+        <v>1.213412165641785</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>3.281532526016235</v>
+        <v>3.663368225097656</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>3.795012235641479</v>
+        <v>3.932492256164551</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>3.81330680847168</v>
+        <v>3.767731666564941</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>3.16619086265564</v>
+        <v>3.595699787139893</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>3.527982950210571</v>
+        <v>3.736693143844604</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>3.410948991775513</v>
+        <v>3.899230718612671</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>2.021544456481934</v>
+        <v>3.401404619216919</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>0.0350673496723175</v>
+        <v>1.756325006484985</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B31">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31">
-        <v>0.02413088455796242</v>
+        <v>0.02620400488376617</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B32">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>0.02347593382000923</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B33">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>0.02347593382000923</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B34">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>0.02347593382000923</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B35">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35">
-        <v>0.02320006862282753</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B36">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36">
-        <v>0.02320006862282753</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C37">
-        <v>0.02331016585230827</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>0.02396511659026146</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>0.02396511659026146</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>0.02396511659026146</v>
@@ -806,10 +806,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>0.02396511659026146</v>
@@ -817,10 +817,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>0.02396511659026146</v>
@@ -828,10 +828,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <v>0.02396511659026146</v>
@@ -839,208 +839,208 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>0.02602160349488258</v>
+        <v>0.02396511659026146</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>1.76830267906189</v>
+        <v>0.02602160349488258</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>3.675012588500977</v>
+        <v>1.450816631317139</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>3.513988733291626</v>
+        <v>3.631202459335327</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>3.19330620765686</v>
+        <v>3.944699287414551</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>3.115317821502686</v>
+        <v>3.767731666564941</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>3.102758884429932</v>
+        <v>3.595699787139893</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B51">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>3.241005897521973</v>
+        <v>3.71630072593689</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B52">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>3.633407115936279</v>
+        <v>3.913488149642944</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B53">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>1.129147887229919</v>
+        <v>3.45599889755249</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B54">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>0.01550001557916403</v>
+        <v>1.756325006484985</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B55">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>0.01349807716906071</v>
+        <v>0.02620400488376617</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B56">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56">
-        <v>0.01207545306533575</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B57">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C57">
-        <v>0.009953487664461136</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B58">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C58">
-        <v>0.009953487664461136</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B59">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C59">
-        <v>0.01113460119813681</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B60">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C60">
-        <v>0.01207545306533575</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C61">
-        <v>0.01280297338962555</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>0.02396511659026146</v>
@@ -1048,10 +1048,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>0.02396511659026146</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>0.02396511659026146</v>
@@ -1070,10 +1070,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65">
         <v>0.02396511659026146</v>
@@ -1081,10 +1081,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66">
         <v>0.02396511659026146</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67">
         <v>0.02396511659026146</v>
@@ -1103,142 +1103,142 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>0.02602160349488258</v>
+        <v>0.02396511659026146</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>2.102064847946167</v>
+        <v>0.02602160349488258</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C70">
-        <v>3.77857232093811</v>
+        <v>1.423936367034912</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>3.54853367805481</v>
+        <v>3.598320245742798</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B72">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>3.367605686187744</v>
+        <v>3.960421085357666</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B73">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73">
-        <v>3.180029630661011</v>
+        <v>3.701785087585449</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B74">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74">
-        <v>3.318439960479736</v>
+        <v>3.352742195129395</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B75">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C75">
-        <v>3.821091890335083</v>
+        <v>3.675429821014404</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B76">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C76">
-        <v>3.424803495407104</v>
+        <v>3.913488149642944</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B77">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>1.72944450378418</v>
+        <v>3.558686494827271</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B78">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>0.02620400488376617</v>
+        <v>1.761136770248413</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B79">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C79">
-        <v>0.02413088455796242</v>
+        <v>0.02620400488376617</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B80">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C80">
         <v>0.02413088455796242</v>
@@ -1246,10 +1246,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B81">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C81">
         <v>0.02413088455796242</v>
@@ -1257,10 +1257,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B82">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C82">
         <v>0.02413088455796242</v>
@@ -1268,10 +1268,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B83">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C83">
         <v>0.02413088455796242</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B84">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C84">
         <v>0.02413088455796242</v>
@@ -1290,145 +1290,145 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C85">
-        <v>3.394882440567017</v>
+        <v>0.02413088455796242</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>3.462519645690918</v>
+        <v>3.173719882965088</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>3.462519645690918</v>
+        <v>3.173719882965088</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>3.462519645690918</v>
+        <v>3.234867572784424</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C89">
-        <v>3.462519645690918</v>
+        <v>3.234867572784424</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C90">
-        <v>3.484997272491455</v>
+        <v>3.173719882965088</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="B91">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91">
-        <v>3.462519645690918</v>
+        <v>3.268086194992065</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="B92">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92">
-        <v>3.412805318832397</v>
+        <v>3.234867572784424</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="B93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93">
-        <v>3.383103132247925</v>
+        <v>3.153742074966431</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="B94">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C94">
-        <v>3.338872671127319</v>
+        <v>3.207395076751709</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="B95">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C95">
-        <v>3.318135023117065</v>
+        <v>3.410599708557129</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="B96">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>3.216139793395996</v>
+        <v>3.423490047454834</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="B97">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97">
-        <v>3.102933168411255</v>
+        <v>3.223410844802856</v>
       </c>
     </row>
   </sheetData>

--- a/RAAL/Production/Results_Production_xgb_RAAL_wm.xlsx
+++ b/RAAL/Production/Results_Production_xgb_RAAL_wm.xlsx
@@ -29,8 +29,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -61,9 +62,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,1058 +379,1058 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>3.285614728927612</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.6084102988243103</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="B3">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>3.232341051101685</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.3972778022289276</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="B4">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>3.066033363342285</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.1503536105155945</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="B5">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>3.297250270843506</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="B6">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>0.8487949967384338</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="B7">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>0.01557119004428387</v>
+        <v>19</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="B8">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>0.0154873700812459</v>
+        <v>20</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="B9">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>0.02413088455796242</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>0.02413088455796242</v>
+        <v>22</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="B11">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>0.02413088455796242</v>
+        <v>23</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B12">
-        <v>22</v>
-      </c>
-      <c r="C12">
-        <v>0.02413088455796242</v>
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B13">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>0.02413088455796242</v>
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0.02396511659026146</v>
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0.02396511659026146</v>
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>0.02396511659026146</v>
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>0.02396511659026146</v>
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>0.02396511659026146</v>
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>0.02396511659026146</v>
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>0.02396511659026146</v>
+        <v>8</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.1204340010881424</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>0.02602160349488258</v>
+        <v>9</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.3680095374584198</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B22">
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <v>1.213412165641785</v>
+        <v>10</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.5659317374229431</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B23">
-        <v>9</v>
-      </c>
-      <c r="C23">
-        <v>3.663368225097656</v>
+        <v>11</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.6871927380561829</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>3.932492256164551</v>
+        <v>12</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.7672234177589417</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B25">
-        <v>11</v>
-      </c>
-      <c r="C25">
-        <v>3.767731666564941</v>
+        <v>13</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.7067506909370422</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B26">
-        <v>12</v>
-      </c>
-      <c r="C26">
-        <v>3.595699787139893</v>
+        <v>14</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.5897424221038818</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B27">
-        <v>13</v>
-      </c>
-      <c r="C27">
-        <v>3.736693143844604</v>
+        <v>15</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.3972778022289276</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B28">
-        <v>14</v>
-      </c>
-      <c r="C28">
-        <v>3.899230718612671</v>
+        <v>16</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.1503536105155945</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B29">
-        <v>15</v>
-      </c>
-      <c r="C29">
-        <v>3.401404619216919</v>
+        <v>17</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B30">
-        <v>16</v>
-      </c>
-      <c r="C30">
-        <v>1.756325006484985</v>
+        <v>18</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B31">
-        <v>17</v>
-      </c>
-      <c r="C31">
-        <v>0.02620400488376617</v>
+        <v>19</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B32">
-        <v>18</v>
-      </c>
-      <c r="C32">
-        <v>0.02413088455796242</v>
+        <v>20</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B33">
-        <v>19</v>
-      </c>
-      <c r="C33">
-        <v>0.02413088455796242</v>
+        <v>21</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B34">
-        <v>20</v>
-      </c>
-      <c r="C34">
-        <v>0.02413088455796242</v>
+        <v>22</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B35">
-        <v>21</v>
-      </c>
-      <c r="C35">
-        <v>0.02413088455796242</v>
+        <v>23</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B36">
-        <v>22</v>
-      </c>
-      <c r="C36">
-        <v>0.02413088455796242</v>
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B37">
-        <v>23</v>
-      </c>
-      <c r="C37">
-        <v>0.02413088455796242</v>
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0.02396511659026146</v>
+        <v>2</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0.02396511659026146</v>
+        <v>3</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <v>0.02396511659026146</v>
+        <v>4</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41">
-        <v>0.02396511659026146</v>
+        <v>5</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>0.02396511659026146</v>
+        <v>6</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B43">
-        <v>5</v>
-      </c>
-      <c r="C43">
-        <v>0.02396511659026146</v>
+        <v>7</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B44">
-        <v>6</v>
-      </c>
-      <c r="C44">
-        <v>0.02396511659026146</v>
+        <v>8</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.1204340010881424</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B45">
-        <v>7</v>
-      </c>
-      <c r="C45">
-        <v>0.02602160349488258</v>
+        <v>9</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.3876617252826691</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B46">
-        <v>8</v>
-      </c>
-      <c r="C46">
-        <v>1.450816631317139</v>
+        <v>10</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.5659317374229431</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B47">
-        <v>9</v>
-      </c>
-      <c r="C47">
-        <v>3.631202459335327</v>
+        <v>11</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.7282121777534485</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B48">
-        <v>10</v>
-      </c>
-      <c r="C48">
-        <v>3.944699287414551</v>
+        <v>12</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.781018078327179</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B49">
-        <v>11</v>
-      </c>
-      <c r="C49">
-        <v>3.767731666564941</v>
+        <v>13</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.7434544563293457</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B50">
-        <v>12</v>
-      </c>
-      <c r="C50">
-        <v>3.595699787139893</v>
+        <v>14</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.6138796210289001</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B51">
-        <v>13</v>
-      </c>
-      <c r="C51">
-        <v>3.71630072593689</v>
+        <v>15</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.526439905166626</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B52">
-        <v>14</v>
-      </c>
-      <c r="C52">
-        <v>3.913488149642944</v>
+        <v>16</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.3357527554035187</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B53">
-        <v>15</v>
-      </c>
-      <c r="C53">
-        <v>3.45599889755249</v>
+        <v>17</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.02376610226929188</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B54">
-        <v>16</v>
-      </c>
-      <c r="C54">
-        <v>1.756325006484985</v>
+        <v>18</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B55">
-        <v>17</v>
-      </c>
-      <c r="C55">
-        <v>0.02620400488376617</v>
+        <v>19</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B56">
-        <v>18</v>
-      </c>
-      <c r="C56">
-        <v>0.02413088455796242</v>
+        <v>20</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B57">
-        <v>19</v>
-      </c>
-      <c r="C57">
-        <v>0.02413088455796242</v>
+        <v>21</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B58">
-        <v>20</v>
-      </c>
-      <c r="C58">
-        <v>0.02413088455796242</v>
+        <v>22</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B59">
-        <v>21</v>
-      </c>
-      <c r="C59">
-        <v>0.02413088455796242</v>
+        <v>23</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B60">
-        <v>22</v>
-      </c>
-      <c r="C60">
-        <v>0.02413088455796242</v>
+        <v>0</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B61">
-        <v>23</v>
-      </c>
-      <c r="C61">
-        <v>0.02413088455796242</v>
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>0.02396511659026146</v>
+        <v>2</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>0.02396511659026146</v>
+        <v>3</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B64">
-        <v>2</v>
-      </c>
-      <c r="C64">
-        <v>0.02396511659026146</v>
+        <v>4</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B65">
-        <v>3</v>
-      </c>
-      <c r="C65">
-        <v>0.02396511659026146</v>
+        <v>5</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B66">
-        <v>4</v>
-      </c>
-      <c r="C66">
-        <v>0.02396511659026146</v>
+        <v>6</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B67">
-        <v>5</v>
-      </c>
-      <c r="C67">
-        <v>0.02396511659026146</v>
+        <v>7</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.01933799870312214</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B68">
-        <v>6</v>
-      </c>
-      <c r="C68">
-        <v>0.02396511659026146</v>
+        <v>8</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.6210240721702576</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B69">
-        <v>7</v>
-      </c>
-      <c r="C69">
-        <v>0.02602160349488258</v>
+        <v>9</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1.538246989250183</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B70">
-        <v>8</v>
-      </c>
-      <c r="C70">
-        <v>1.423936367034912</v>
+        <v>10</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2.376880645751953</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B71">
-        <v>9</v>
-      </c>
-      <c r="C71">
-        <v>3.598320245742798</v>
+        <v>11</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2.938392400741577</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B72">
-        <v>10</v>
-      </c>
-      <c r="C72">
-        <v>3.960421085357666</v>
+        <v>12</v>
+      </c>
+      <c r="C72" s="2">
+        <v>3.131509780883789</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B73">
-        <v>11</v>
-      </c>
-      <c r="C73">
-        <v>3.701785087585449</v>
+        <v>13</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2.970569133758545</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B74">
-        <v>12</v>
-      </c>
-      <c r="C74">
-        <v>3.352742195129395</v>
+        <v>14</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2.443078517913818</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B75">
-        <v>13</v>
-      </c>
-      <c r="C75">
-        <v>3.675429821014404</v>
+        <v>15</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1.723619818687439</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B76">
-        <v>14</v>
-      </c>
-      <c r="C76">
-        <v>3.913488149642944</v>
+        <v>16</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.8449246287345886</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B77">
-        <v>15</v>
-      </c>
-      <c r="C77">
-        <v>3.558686494827271</v>
+        <v>17</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.09065769612789154</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B78">
-        <v>16</v>
-      </c>
-      <c r="C78">
-        <v>1.761136770248413</v>
+        <v>18</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B79">
-        <v>17</v>
-      </c>
-      <c r="C79">
-        <v>0.02620400488376617</v>
+        <v>19</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B80">
-        <v>18</v>
-      </c>
-      <c r="C80">
-        <v>0.02413088455796242</v>
+        <v>20</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B81">
-        <v>19</v>
-      </c>
-      <c r="C81">
-        <v>0.02413088455796242</v>
+        <v>21</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B82">
-        <v>20</v>
-      </c>
-      <c r="C82">
-        <v>0.02413088455796242</v>
+        <v>22</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B83">
-        <v>21</v>
-      </c>
-      <c r="C83">
-        <v>0.02413088455796242</v>
+        <v>23</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.006533322390168905</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="B84">
-        <v>22</v>
-      </c>
-      <c r="C84">
-        <v>0.02413088455796242</v>
+        <v>0</v>
+      </c>
+      <c r="C84" s="2">
+        <v>5.343495845794678</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="B85">
-        <v>23</v>
-      </c>
-      <c r="C85">
-        <v>0.02413088455796242</v>
+        <v>1</v>
+      </c>
+      <c r="C85" s="2">
+        <v>5.343495845794678</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>3.173719882965088</v>
+        <v>2</v>
+      </c>
+      <c r="C86" s="2">
+        <v>5.343495845794678</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>3.173719882965088</v>
+        <v>3</v>
+      </c>
+      <c r="C87" s="2">
+        <v>5.343495845794678</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="B88">
-        <v>2</v>
-      </c>
-      <c r="C88">
-        <v>3.234867572784424</v>
+        <v>4</v>
+      </c>
+      <c r="C88" s="2">
+        <v>5.343495845794678</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="B89">
-        <v>3</v>
-      </c>
-      <c r="C89">
-        <v>3.234867572784424</v>
+        <v>5</v>
+      </c>
+      <c r="C89" s="2">
+        <v>5.343495845794678</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="B90">
-        <v>4</v>
-      </c>
-      <c r="C90">
-        <v>3.173719882965088</v>
+        <v>6</v>
+      </c>
+      <c r="C90" s="2">
+        <v>5.343495845794678</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="B91">
-        <v>5</v>
-      </c>
-      <c r="C91">
-        <v>3.268086194992065</v>
+        <v>7</v>
+      </c>
+      <c r="C91" s="2">
+        <v>5.353806972503662</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="B92">
-        <v>6</v>
-      </c>
-      <c r="C92">
-        <v>3.234867572784424</v>
+        <v>8</v>
+      </c>
+      <c r="C92" s="2">
+        <v>5.363654136657715</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="B93">
-        <v>7</v>
-      </c>
-      <c r="C93">
-        <v>3.153742074966431</v>
+        <v>9</v>
+      </c>
+      <c r="C93" s="2">
+        <v>5.403271675109863</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="B94">
-        <v>8</v>
-      </c>
-      <c r="C94">
-        <v>3.207395076751709</v>
+        <v>10</v>
+      </c>
+      <c r="C94" s="2">
+        <v>5.403271675109863</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="B95">
-        <v>9</v>
-      </c>
-      <c r="C95">
-        <v>3.410599708557129</v>
+        <v>11</v>
+      </c>
+      <c r="C95" s="2">
+        <v>5.403271675109863</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="B96">
-        <v>10</v>
-      </c>
-      <c r="C96">
-        <v>3.423490047454834</v>
+        <v>12</v>
+      </c>
+      <c r="C96" s="2">
+        <v>5.403271675109863</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="B97">
-        <v>11</v>
-      </c>
-      <c r="C97">
-        <v>3.223410844802856</v>
+        <v>13</v>
+      </c>
+      <c r="C97" s="2">
+        <v>5.390539646148682</v>
       </c>
     </row>
   </sheetData>

--- a/RAAL/Production/Results_Production_xgb_RAAL_wm.xlsx
+++ b/RAAL/Production/Results_Production_xgb_RAAL_wm.xlsx
@@ -379,112 +379,112 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
-        <v>0.6084102988243103</v>
+        <v>0.7070000171661377</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>0.3972778022289276</v>
+        <v>0.5899999737739563</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>0.1503536105155945</v>
+        <v>0.3970000147819519</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.1500000059604645</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -492,263 +492,263 @@
         <v>45335</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2">
-        <v>0.1204340010881424</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2">
-        <v>0.3680095374584198</v>
+        <v>0.119999997317791</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2">
-        <v>0.5659317374229431</v>
+        <v>0.3970000147819519</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2">
-        <v>0.6871927380561829</v>
+        <v>0.5970000028610229</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2">
-        <v>0.7672234177589417</v>
+        <v>0.7279999852180481</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2">
-        <v>0.7067506909370422</v>
+        <v>0.781000018119812</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2">
-        <v>0.5897424221038818</v>
+        <v>0.7429999709129333</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2">
-        <v>0.3972778022289276</v>
+        <v>0.6079999804496765</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2">
-        <v>0.1503536105155945</v>
+        <v>0.4189999997615814</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.1860000044107437</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B31">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B33">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B35">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -756,263 +756,236 @@
         <v>45336</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C36" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" s="2">
-        <v>0.006533322390168905</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" s="2">
-        <v>0.1204340010881424</v>
+        <v>0.02400000020861626</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C45" s="2">
-        <v>0.3876617252826691</v>
+        <v>0.6869999766349792</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" s="2">
-        <v>0.5659317374229431</v>
+        <v>1.575999975204468</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47" s="2">
-        <v>0.7282121777534485</v>
+        <v>2.398999929428101</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" s="2">
-        <v>0.781018078327179</v>
+        <v>2.937999963760376</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49" s="2">
-        <v>0.7434544563293457</v>
+        <v>3.131999969482422</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C50" s="2">
-        <v>0.6138796210289001</v>
+        <v>3.131999969482422</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B51">
-        <v>15</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0.526439905166626</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B52">
-        <v>16</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0.3357527554035187</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B53">
-        <v>17</v>
-      </c>
-      <c r="C53" s="2">
-        <v>0.02376610226929188</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B54">
-        <v>18</v>
-      </c>
-      <c r="C54" s="2">
-        <v>0.006533322390168905</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B55">
-        <v>19</v>
-      </c>
-      <c r="C55" s="2">
-        <v>0.006533322390168905</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B56">
-        <v>20</v>
-      </c>
-      <c r="C56" s="2">
-        <v>0.006533322390168905</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B57">
-        <v>21</v>
-      </c>
-      <c r="C57" s="2">
-        <v>0.006533322390168905</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B58">
-        <v>22</v>
-      </c>
-      <c r="C58" s="2">
-        <v>0.006533322390168905</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B59">
-        <v>23</v>
-      </c>
-      <c r="C59" s="2">
-        <v>0.006533322390168905</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1020,10 +993,7 @@
         <v>45337</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60" s="2">
-        <v>0.006533322390168905</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1031,406 +1001,295 @@
         <v>45337</v>
       </c>
       <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" s="2">
-        <v>0.006533322390168905</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B62">
-        <v>2</v>
-      </c>
-      <c r="C62" s="2">
-        <v>0.006533322390168905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B63">
-        <v>3</v>
-      </c>
-      <c r="C63" s="2">
-        <v>0.006533322390168905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B66">
         <v>4</v>
       </c>
-      <c r="C64" s="2">
-        <v>0.006533322390168905</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B65">
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B67">
         <v>5</v>
       </c>
-      <c r="C65" s="2">
-        <v>0.006533322390168905</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B66">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B68">
         <v>6</v>
       </c>
-      <c r="C66" s="2">
-        <v>0.006533322390168905</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B67">
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B69">
         <v>7</v>
       </c>
-      <c r="C67" s="2">
-        <v>0.01933799870312214</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B68">
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B70">
         <v>8</v>
       </c>
-      <c r="C68" s="2">
-        <v>0.6210240721702576</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B69">
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B71">
         <v>9</v>
       </c>
-      <c r="C69" s="2">
-        <v>1.538246989250183</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B70">
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B72">
         <v>10</v>
       </c>
-      <c r="C70" s="2">
-        <v>2.376880645751953</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B71">
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B73">
         <v>11</v>
       </c>
-      <c r="C71" s="2">
-        <v>2.938392400741577</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B72">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B74">
         <v>12</v>
       </c>
-      <c r="C72" s="2">
-        <v>3.131509780883789</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B73">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B75">
         <v>13</v>
       </c>
-      <c r="C73" s="2">
-        <v>2.970569133758545</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B74">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B76">
         <v>14</v>
       </c>
-      <c r="C74" s="2">
-        <v>2.443078517913818</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B75">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B77">
         <v>15</v>
       </c>
-      <c r="C75" s="2">
-        <v>1.723619818687439</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B76">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B78">
         <v>16</v>
       </c>
-      <c r="C76" s="2">
-        <v>0.8449246287345886</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B77">
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B79">
         <v>17</v>
       </c>
-      <c r="C77" s="2">
-        <v>0.09065769612789154</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B78">
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B80">
         <v>18</v>
       </c>
-      <c r="C78" s="2">
-        <v>0.006533322390168905</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B79">
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B81">
         <v>19</v>
       </c>
-      <c r="C79" s="2">
-        <v>0.006533322390168905</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B80">
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B82">
         <v>20</v>
       </c>
-      <c r="C80" s="2">
-        <v>0.006533322390168905</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B81">
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B83">
         <v>21</v>
       </c>
-      <c r="C81" s="2">
-        <v>0.006533322390168905</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B82">
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B84">
         <v>22</v>
       </c>
-      <c r="C82" s="2">
-        <v>0.006533322390168905</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B83">
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B85">
         <v>23</v>
       </c>
-      <c r="C83" s="2">
-        <v>0.006533322390168905</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B84">
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
+        <v>45339</v>
+      </c>
+      <c r="B86">
         <v>0</v>
       </c>
-      <c r="C84" s="2">
-        <v>5.343495845794678</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B85">
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
+        <v>45339</v>
+      </c>
+      <c r="B87">
         <v>1</v>
       </c>
-      <c r="C85" s="2">
-        <v>5.343495845794678</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B86">
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
+        <v>45339</v>
+      </c>
+      <c r="B88">
         <v>2</v>
       </c>
-      <c r="C86" s="2">
-        <v>5.343495845794678</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B87">
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>45339</v>
+      </c>
+      <c r="B89">
         <v>3</v>
       </c>
-      <c r="C87" s="2">
-        <v>5.343495845794678</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B88">
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>45339</v>
+      </c>
+      <c r="B90">
         <v>4</v>
       </c>
-      <c r="C88" s="2">
-        <v>5.343495845794678</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B89">
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>45339</v>
+      </c>
+      <c r="B91">
         <v>5</v>
       </c>
-      <c r="C89" s="2">
-        <v>5.343495845794678</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B90">
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>45339</v>
+      </c>
+      <c r="B92">
         <v>6</v>
       </c>
-      <c r="C90" s="2">
-        <v>5.343495845794678</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B91">
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
+        <v>45339</v>
+      </c>
+      <c r="B93">
         <v>7</v>
       </c>
-      <c r="C91" s="2">
-        <v>5.353806972503662</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B92">
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
+        <v>45339</v>
+      </c>
+      <c r="B94">
         <v>8</v>
       </c>
-      <c r="C92" s="2">
-        <v>5.363654136657715</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B93">
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>45339</v>
+      </c>
+      <c r="B95">
         <v>9</v>
       </c>
-      <c r="C93" s="2">
-        <v>5.403271675109863</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B94">
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
+        <v>45339</v>
+      </c>
+      <c r="B96">
         <v>10</v>
       </c>
-      <c r="C94" s="2">
-        <v>5.403271675109863</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B95">
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
+        <v>45339</v>
+      </c>
+      <c r="B97">
         <v>11</v>
-      </c>
-      <c r="C95" s="2">
-        <v>5.403271675109863</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B96">
-        <v>12</v>
-      </c>
-      <c r="C96" s="2">
-        <v>5.403271675109863</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B97">
-        <v>13</v>
-      </c>
-      <c r="C97" s="2">
-        <v>5.390539646148682</v>
       </c>
     </row>
   </sheetData>

--- a/RAAL/Production/Results_Production_xgb_RAAL_wm.xlsx
+++ b/RAAL/Production/Results_Production_xgb_RAAL_wm.xlsx
@@ -360,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -379,54 +379,54 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45335</v>
+        <v>45342</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>0.7070000171661377</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45335</v>
+        <v>45342</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>0.5899999737739563</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45335</v>
+        <v>45342</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>0.3970000147819519</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45335</v>
+        <v>45342</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>0.1500000059604645</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45335</v>
+        <v>45342</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
         <v>0.007000000216066837</v>
@@ -434,10 +434,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45335</v>
+        <v>45342</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
         <v>0.007000000216066837</v>
@@ -445,10 +445,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45335</v>
+        <v>45342</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
         <v>0.007000000216066837</v>
@@ -456,10 +456,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45335</v>
+        <v>45342</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
         <v>0.007000000216066837</v>
@@ -467,120 +467,120 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45335</v>
+        <v>45342</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>0.007000000216066837</v>
+        <v>0.1669999957084656</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45335</v>
+        <v>45342</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>0.007000000216066837</v>
+        <v>0.4269999861717224</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45335</v>
+        <v>45342</v>
       </c>
       <c r="B12">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>0.007000000216066837</v>
+        <v>0.6209999918937683</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>0.007000000216066837</v>
+        <v>0.7670000195503235</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
-        <v>0.007000000216066837</v>
+        <v>0.8050000071525574</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2">
-        <v>0.007000000216066837</v>
+        <v>0.781000018119812</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>0.007000000216066837</v>
+        <v>0.6510000228881836</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
-        <v>0.007000000216066837</v>
+        <v>0.4720000028610229</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>0.007000000216066837</v>
+        <v>0.2249999940395355</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
-        <v>0.007000000216066837</v>
+        <v>0.01899999938905239</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
         <v>0.007000000216066837</v>
@@ -588,109 +588,109 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
-        <v>0.119999997317791</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2">
-        <v>0.3970000147819519</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2">
-        <v>0.5970000028610229</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>0.7279999852180481</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>0.781000018119812</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45336</v>
+        <v>45343</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>0.7429999709129333</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45336</v>
+        <v>45343</v>
       </c>
       <c r="B27">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C27" s="2">
-        <v>0.6079999804496765</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45336</v>
+        <v>45343</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2">
-        <v>0.4189999997615814</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45336</v>
+        <v>45343</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C29" s="2">
-        <v>0.1860000044107437</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45336</v>
+        <v>45343</v>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C30" s="2">
         <v>0.007000000216066837</v>
@@ -698,10 +698,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45336</v>
+        <v>45343</v>
       </c>
       <c r="B31">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C31" s="2">
         <v>0.007000000216066837</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45336</v>
+        <v>45343</v>
       </c>
       <c r="B32">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C32" s="2">
         <v>0.007000000216066837</v>
@@ -720,10 +720,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45336</v>
+        <v>45343</v>
       </c>
       <c r="B33">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C33" s="2">
         <v>0.007000000216066837</v>
@@ -731,565 +731,442 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45336</v>
+        <v>45343</v>
       </c>
       <c r="B34">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C34" s="2">
-        <v>0.007000000216066837</v>
+        <v>0.2010000050067902</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45336</v>
+        <v>45343</v>
       </c>
       <c r="B35">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C35" s="2">
-        <v>0.007000000216066837</v>
+        <v>0.4720000028610229</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45336</v>
+        <v>45343</v>
       </c>
       <c r="B36">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
-        <v>0.007000000216066837</v>
+        <v>0.6869999766349792</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C37" s="2">
-        <v>0.007000000216066837</v>
+        <v>0.8050000071525574</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C38" s="2">
-        <v>0.007000000216066837</v>
+        <v>0.8619999885559082</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C39" s="2">
-        <v>0.007000000216066837</v>
+        <v>0.8050000071525574</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C40" s="2">
-        <v>0.007000000216066837</v>
+        <v>0.6800000071525574</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C41" s="2">
-        <v>0.007000000216066837</v>
+        <v>0.5590000152587891</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C42" s="2">
-        <v>0.007000000216066837</v>
+        <v>0.3880000114440918</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C43" s="2">
-        <v>0.007000000216066837</v>
+        <v>0.05099999904632568</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C44" s="2">
-        <v>0.02400000020861626</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C45" s="2">
-        <v>0.6869999766349792</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C46" s="2">
-        <v>1.575999975204468</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C47" s="2">
-        <v>2.398999929428101</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C48" s="2">
-        <v>2.937999963760376</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C49" s="2">
-        <v>3.131999969482422</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C50" s="2">
-        <v>3.131999969482422</v>
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B54">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B55">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B56">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B57">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.2010000050067902</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B59">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.4720000028610229</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B60">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.6650000214576721</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B61">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.8050000071525574</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45338</v>
+        <v>45344</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.8349999785423279</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45338</v>
+        <v>45344</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.8050000071525574</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45338</v>
+        <v>45344</v>
       </c>
       <c r="B64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.9369999766349792</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45338</v>
+        <v>45344</v>
       </c>
       <c r="B65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1.039999961853027</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45338</v>
+        <v>45344</v>
       </c>
       <c r="B66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.5590000152587891</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45338</v>
+        <v>45344</v>
       </c>
       <c r="B67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.07699999958276749</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45338</v>
+        <v>45344</v>
       </c>
       <c r="B68">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.007000000216066837</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45338</v>
+        <v>45344</v>
       </c>
       <c r="B69">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>19</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.007000000216066837</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45338</v>
+        <v>45344</v>
       </c>
       <c r="B70">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.007000000216066837</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45338</v>
+        <v>45344</v>
       </c>
       <c r="B71">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>21</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.007000000216066837</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45338</v>
+        <v>45344</v>
       </c>
       <c r="B72">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>22</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.007000000216066837</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45338</v>
+        <v>45344</v>
       </c>
       <c r="B73">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B74">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B75">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B76">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B77">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B78">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B79">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B80">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B81">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B82">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B83">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B84">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B85">
         <v>23</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B90">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B91">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B92">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B93">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B94">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B95">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B96">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B97">
-        <v>11</v>
+      <c r="C73" s="2">
+        <v>0.007000000216066837</v>
       </c>
     </row>
   </sheetData>
